--- a/input/spectrophotometry/dsl.5/data.input.full.xlsx
+++ b/input/spectrophotometry/dsl.5/data.input.full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\spectrophotometry\dsl.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404B8A7-EE39-4AE8-B7A4-9209964034A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A815F5-669A-41DF-9959-F6FA61F1789A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
